--- a/data/gcf-data.xlsx
+++ b/data/gcf-data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmaff/Documents/GitHub/bnl-hsrp-2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654997AA-9C96-0A4C-AA0B-5C61001FA3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB675B2-E384-194A-8A2F-2F14D2C380C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20280" xr2:uid="{F470DCD6-6459-9244-964D-27B17B94E1FC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34080" windowHeight="20280" xr2:uid="{F470DCD6-6459-9244-964D-27B17B94E1FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Zero #</t>
   </si>
@@ -80,6 +80,9 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>Vertex X</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,15 +119,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,6 +154,7060 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04C7-AF42-9EDB-4946F4CBC018}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1503775616"/>
+        <c:axId val="1503754656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1503775616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503754656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1503754656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503775616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4192-1849-B1E7-C450A1EAAA1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1507073600"/>
+        <c:axId val="1507004192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1507073600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507004192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507004192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507073600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>a0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34A2-7C49-B9B8-A33B71A190F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1507301232"/>
+        <c:axId val="1507467984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1507301232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507467984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507467984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507301232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3725-4144-9D27-DC9C2F6E7340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1507727904"/>
+        <c:axId val="1507729536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1507727904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507729536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507729536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507727904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C7F-D143-A274-9BE650515268}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1507204768"/>
+        <c:axId val="1507371776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1507204768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507371776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507371776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507204768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21B0-DE44-9A53-A10F7393F7A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1506438928"/>
+        <c:axId val="1519582832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1506438928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1519582832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1519582832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1506438928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5E2-0441-91A9-111EE32AFFC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1459421840"/>
+        <c:axId val="1459495136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1459421840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459495136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1459495136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1459421840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76BE9C0-1D15-9F4D-AD61-AF167C39FCEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C9C772C-5B41-F841-8679-72F96A495287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D471C06-D5EA-B740-8E65-E39F05A94AD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148C4276-4648-174A-AAA2-6BEA6F6C4EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653AB0AD-6855-6245-A3B9-FBCA3A5866A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98289EA-15AF-9B47-A187-22350B543383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F35633-1D55-8C4F-A7DB-1C96A287CEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,15 +7507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AAFEE5-6142-AC47-A322-DDDD21DD3DCB}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:W115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +7540,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -498,8 +7569,12 @@
       <c r="H2">
         <v>-1</v>
       </c>
+      <c r="J2">
+        <f>-E2/(2*D2)</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -524,8 +7599,12 @@
       <c r="H3">
         <v>-1</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="0">-E3/(2*D3)</f>
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -550,8 +7629,12 @@
       <c r="H4">
         <v>13</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -576,8 +7659,12 @@
       <c r="H5">
         <v>-17</v>
       </c>
+      <c r="J5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -602,8 +7689,1726 @@
       <c r="H6">
         <v>-2</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-1.3571428571428572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>-5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-13</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>-11</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>-11</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>-3</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>-17</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.22727272727272727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>-11</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-19</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>-17</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>-17</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>-11</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>-19</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>-11</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>-17</v>
+      </c>
+      <c r="E12">
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <v>-13</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>-17</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-17</v>
+      </c>
+      <c r="H13" s="2">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <f>-E14/(2*D14)</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-11</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15:J52" si="1">-E15/(2*D15)</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-11</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-17</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-5</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-19</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-13</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-13</v>
+      </c>
+      <c r="G19" s="3">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-11</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-17</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2142857142857142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-11</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-11</v>
+      </c>
+      <c r="G22" s="3">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-13</v>
+      </c>
+      <c r="G23" s="3">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-11</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-5</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-5</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-13</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G28" s="3">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-13</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-17</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-17</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G30" s="3">
+        <v>11</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-7</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-7</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-11</v>
+      </c>
+      <c r="H32" s="3">
+        <v>13</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-13</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-19</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-11</v>
+      </c>
+      <c r="E35" s="3">
+        <v>19</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-7</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-7</v>
+      </c>
+      <c r="H35" s="3">
+        <v>11</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.86363636363636365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-17</v>
+      </c>
+      <c r="E36" s="3">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3">
+        <v>19</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-11</v>
+      </c>
+      <c r="H36" s="3">
+        <v>13</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.38235294117647056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>17</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>-11</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G37" s="3">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>17</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>-5</v>
+      </c>
+      <c r="F38" s="3">
+        <v>-3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G39" s="3">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-11</v>
+      </c>
+      <c r="F40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3">
+        <v>-5</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-5</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>19</v>
+      </c>
+      <c r="C42" s="3">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>-7</v>
+      </c>
+      <c r="F42" s="3">
+        <v>-13</v>
+      </c>
+      <c r="G42" s="3">
+        <v>13</v>
+      </c>
+      <c r="H42" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E43" s="3">
+        <v>-11</v>
+      </c>
+      <c r="F43" s="3">
+        <v>-11</v>
+      </c>
+      <c r="G43" s="3">
+        <v>13</v>
+      </c>
+      <c r="H43" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>17</v>
+      </c>
+      <c r="C44" s="3">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-11</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G44" s="3">
+        <v>13</v>
+      </c>
+      <c r="H44" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22727272727272727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>-19</v>
+      </c>
+      <c r="F45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>7</v>
+      </c>
+      <c r="H45" s="3">
+        <v>-3</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>-3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>-13</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>-19</v>
+      </c>
+      <c r="F47" s="3">
+        <v>-5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>13</v>
+      </c>
+      <c r="H47" s="3">
+        <v>-11</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>17</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-11</v>
+      </c>
+      <c r="E48" s="3">
+        <v>-17</v>
+      </c>
+      <c r="F48" s="3">
+        <v>-7</v>
+      </c>
+      <c r="G48" s="3">
+        <v>19</v>
+      </c>
+      <c r="H48" s="3">
+        <v>-17</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.77272727272727271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>-19</v>
+      </c>
+      <c r="F49" s="3">
+        <v>-17</v>
+      </c>
+      <c r="G49" s="3">
+        <v>19</v>
+      </c>
+      <c r="H49" s="3">
+        <v>-17</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>-5</v>
+      </c>
+      <c r="F50" s="3">
+        <v>-3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>-5</v>
+      </c>
+      <c r="F51" s="3">
+        <v>-3</v>
+      </c>
+      <c r="G51" s="3">
+        <v>3</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>13</v>
+      </c>
+      <c r="C52" s="3">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>-13</v>
+      </c>
+      <c r="F52" s="3">
+        <v>-19</v>
+      </c>
+      <c r="G52" s="3">
+        <v>19</v>
+      </c>
+      <c r="H52" s="3">
+        <v>-17</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="83" spans="17:23">
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="17:23">
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="17:23">
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="17:23">
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="17:23">
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="17:23">
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="17:23">
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="17:23">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="17:23">
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="17:23">
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="17:23">
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="17:23">
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="17:23">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="17:23">
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+    </row>
+    <row r="97" spans="17:23">
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="17:23">
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="17:23">
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="17:23">
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+    </row>
+    <row r="101" spans="17:23">
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+    </row>
+    <row r="102" spans="17:23">
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+    </row>
+    <row r="103" spans="17:23">
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+    </row>
+    <row r="104" spans="17:23">
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+    </row>
+    <row r="105" spans="17:23">
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+    </row>
+    <row r="106" spans="17:23">
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+    </row>
+    <row r="107" spans="17:23">
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+    </row>
+    <row r="108" spans="17:23">
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+    </row>
+    <row r="109" spans="17:23">
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+    </row>
+    <row r="110" spans="17:23">
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+    </row>
+    <row r="111" spans="17:23">
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+    </row>
+    <row r="112" spans="17:23">
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+    </row>
+    <row r="113" spans="17:23">
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+    </row>
+    <row r="114" spans="17:23">
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+    </row>
+    <row r="115" spans="17:23">
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/gcf-data.xlsx
+++ b/data/gcf-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmaff/Documents/GitHub/bnl-hsrp-2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB675B2-E384-194A-8A2F-2F14D2C380C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12777488-104F-D24E-8FD0-20B704C5FE12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34080" windowHeight="20280" xr2:uid="{F470DCD6-6459-9244-964D-27B17B94E1FC}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="20280" xr2:uid="{F470DCD6-6459-9244-964D-27B17B94E1FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$95</c:f>
+              <c:f>Sheet1!$D$2:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-13</c:v>
                 </c:pt>
@@ -649,10 +649,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$95</c:f>
+              <c:f>Sheet1!$E$2:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1064,10 +1064,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$95</c:f>
+              <c:f>Sheet1!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1479,10 +1479,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$95</c:f>
+              <c:f>Sheet1!$C$2:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1894,10 +1894,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$95</c:f>
+              <c:f>Sheet1!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-13</c:v>
                 </c:pt>
@@ -2309,10 +2309,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$95</c:f>
+              <c:f>Sheet1!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -2724,10 +2724,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$95</c:f>
+              <c:f>Sheet1!$H$2:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -7509,8 +7509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AAFEE5-6142-AC47-A322-DDDD21DD3DCB}">
   <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9409,6 +9409,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>